--- a/Enlottery/BuyTicket.xlsx
+++ b/Enlottery/BuyTicket.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LucSpace\enlottery\Enlottery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhtr\OneDrive\Desktop\Enlottery (1)\Enlottery (1)\Enlottery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40714AB7-1CFF-4513-8B34-D03C4296A0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
   <si>
     <t>Full Name</t>
   </si>
@@ -156,9 +155,6 @@
     <t>Viet Nguyen</t>
   </si>
   <si>
-    <t>Sơn Tran Le</t>
-  </si>
-  <si>
     <t>Khánh Trần</t>
   </si>
   <si>
@@ -211,12 +207,18 @@
   </si>
   <si>
     <t>Loc Nguyen</t>
+  </si>
+  <si>
+    <t>Loc Dinh Nguyen</t>
+  </si>
+  <si>
+    <t>Tan Le</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -244,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,21 +257,6 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -297,37 +284,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -545,20 +511,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -566,7 +532,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1">
@@ -574,1434 +540,1498 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>47463</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>48839</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>43913</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>54965</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>84180</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>25230</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>11919</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>11957</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>16429</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>51604</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>51762</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>75169</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2">
+        <v>95351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="2">
         <v>67917</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="2">
         <v>20173</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="2">
         <v>33999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="2">
         <v>62465</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="2">
         <v>68978</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="2">
         <v>12039</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="2">
         <v>91350</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="2">
         <v>77274</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="2">
         <v>80848</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="2">
         <v>77797</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="2">
         <v>73346</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="2">
         <v>9778</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="2">
         <v>74452</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="2">
         <v>47922</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="2">
         <v>76752</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="2">
         <v>45273</v>
       </c>
     </row>
-    <row r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="2">
         <v>69972</v>
       </c>
     </row>
-    <row r="32" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="2">
         <v>12078</v>
       </c>
     </row>
-    <row r="33" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="2">
         <v>25948</v>
       </c>
     </row>
-    <row r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="2">
         <v>98560</v>
       </c>
     </row>
-    <row r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="2">
         <v>73589</v>
       </c>
     </row>
-    <row r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="2">
         <v>32582</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="2">
         <v>92451</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="2">
         <v>85167</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="2">
         <v>36193</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="2">
         <v>87597</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="2">
         <v>45929</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="2">
         <v>70721</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B44" s="2">
         <v>34657</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="2">
         <v>14749</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="2">
         <v>21417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="3">
-        <v>26198</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="2">
+        <v>26198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="2">
+        <v>94724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B49" s="1">
         <v>69746</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B50" s="2">
         <v>20455</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B51" s="2">
         <v>71808</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B52" s="2">
         <v>95360</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B53" s="2">
         <v>5840</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B54" s="2">
         <v>6059</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B55" s="2">
         <v>20171</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B56" s="2">
         <v>91596</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B57" s="2">
         <v>88757</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B58" s="2">
         <v>55375</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B59" s="2">
         <v>59400</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B60" s="2">
         <v>47092</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B61" s="2">
         <v>59072</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B62" s="2">
         <v>72621</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B63" s="2">
         <v>57215</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B64" s="2">
         <v>58913</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B65" s="2">
         <v>14774</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B66" s="2">
         <v>90955</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B67" s="2">
         <v>10349</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B68" s="2">
         <v>26705</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B69" s="2">
         <v>65284</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B70" s="2">
         <v>83225</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B71" s="2">
         <v>80566</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B72" s="2">
         <v>24571</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B73" s="2">
         <v>34110</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B74" s="2">
         <v>60888</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B75" s="2">
         <v>94347</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="2">
+        <v>12428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B77" s="2">
         <v>37854</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B78" s="2">
         <v>63246</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B79" s="2">
         <v>10233</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B80" s="2">
         <v>63348</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B81" s="2">
         <v>42108</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B82" s="2">
         <v>885</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B83" s="2">
         <v>11488</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B84" s="2">
         <v>70381</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B85" s="2">
         <v>49850</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2">
+        <v>55076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="3">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="3">
-        <v>55076</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+      <c r="B88" s="2">
+        <v>74681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="2">
+        <v>15575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2">
+        <v>12228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="3">
-        <v>74681</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="3">
-        <v>12228</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="3">
+      <c r="B91" s="2">
         <v>61390</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B92" s="2">
         <v>84751</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="3">
-        <v>59150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" s="3">
-        <v>14234</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="3">
-        <v>83943</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="3">
-        <v>55227</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="2">
+        <v>59150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="2">
+        <v>14234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" s="2">
+        <v>83943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="2">
+        <v>55227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="1">
+        <v>15027</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="2">
+        <v>54052</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="2">
+        <v>88148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" s="2">
+        <v>9257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="2">
+        <v>35046</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="1">
-        <v>15027</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="B102" s="2">
+        <v>58543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="3">
-        <v>54052</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+      <c r="B103" s="2">
+        <v>50913</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B95" s="3">
-        <v>88148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="B104" s="2">
+        <v>93027</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="3">
-        <v>9257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" s="3">
-        <v>35046</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="B105" s="2">
+        <v>70629</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="3">
-        <v>58543</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" s="3">
-        <v>50913</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="3">
-        <v>93027</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="3">
-        <v>70629</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
+      <c r="B106" s="2">
+        <v>57894</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="2">
+        <v>41045</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="2">
+        <v>30506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2">
+        <v>11652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="2">
+        <v>17021</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" s="2">
+        <v>85641</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="3">
-        <v>57894</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="3">
-        <v>41045</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B104" s="3">
-        <v>30506</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="3">
-        <v>11652</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" s="3">
-        <v>17021</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+      <c r="B112" s="2">
+        <v>74833</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B107" s="3">
-        <v>74833</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+      <c r="B113" s="2">
+        <v>22706</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="2">
+        <v>95105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="3">
-        <v>22706</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="B115" s="2">
+        <v>98042</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="3">
-        <v>95105</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+      <c r="B116" s="2">
+        <v>99325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="2">
+        <v>98031</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="2">
+        <v>17345</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="2">
+        <v>84484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" s="2">
+        <v>29586</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="2">
+        <v>60233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2">
+        <v>40629</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="2">
+        <v>75151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" s="2">
+        <v>74186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B110" s="3">
-        <v>98042</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" s="3">
-        <v>99325</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B112" s="3">
-        <v>98031</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B113" s="3">
-        <v>44760</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="3">
-        <v>17345</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="3">
-        <v>84484</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B116" s="3">
-        <v>43168</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="3">
-        <v>29586</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B118" s="3">
-        <v>60233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="3">
-        <v>40629</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B120" s="3">
-        <v>75151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="3">
-        <v>74186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="B128" s="2">
+        <v>80153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="2">
+        <v>73967</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B122" s="3">
-        <v>80153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" s="3">
-        <v>73967</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B124" s="3">
+      <c r="B130" s="2">
         <v>56096</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B125" s="3">
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" s="2">
         <v>78421</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B132" s="2">
         <v>84625</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B133" s="2">
         <v>508</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B134" s="2">
         <v>19293</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B135" s="2">
         <v>50960</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B136" s="2">
         <v>94939</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="3">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B132" s="3">
-        <v>15499</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B133" s="3">
-        <v>73441</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B134" s="3">
-        <v>65159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B135" s="3">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B136" s="3">
-        <v>89653</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" s="2">
+        <v>15499</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" s="2">
+        <v>73441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="2">
+        <v>65159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="2">
+        <v>89653</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" s="1">
+        <v>40339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="2">
+        <v>10485</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B145" s="2">
+        <v>70021</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B146" s="2">
+        <v>60285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B137" s="1">
-        <v>40339</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+      <c r="B147" s="2">
+        <v>24325</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B138" s="3">
-        <v>10485</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+      <c r="B148" s="2">
+        <v>36976</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B139" s="3">
-        <v>70021</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="B149" s="2">
+        <v>29736</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B140" s="3">
-        <v>60285</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="B150" s="2">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="3">
-        <v>24325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="B151" s="2">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B142" s="3">
-        <v>36976</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="B152" s="2">
+        <v>33737</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B143" s="3">
-        <v>29736</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
+      <c r="B153" s="2">
+        <v>27447</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="2">
+        <v>81051</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" s="2">
+        <v>83918</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B144" s="3">
-        <v>4923</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="B156" s="2">
+        <v>8341</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" s="2">
+        <v>54354</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="2">
+        <v>32288</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="2">
+        <v>25121</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B145" s="3">
-        <v>45437</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B146" s="3">
-        <v>33737</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B147" s="3">
-        <v>27447</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B148" s="3">
-        <v>81051</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" s="3">
-        <v>83918</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B150" s="3">
-        <v>8341</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B151" s="3">
-        <v>54354</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B152" s="3">
-        <v>32288</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
+      <c r="B160" s="2">
+        <v>62933</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="2">
+        <v>58923</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162" s="2">
+        <v>27301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="2">
+        <v>20707</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B164" s="2">
+        <v>97010</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B165" s="2">
+        <v>9545</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B153" s="3">
-        <v>25121</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
+      <c r="B166" s="2">
+        <v>36904</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" s="2">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="2">
+        <v>81468</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B169" s="2">
+        <v>56173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B170" s="2">
+        <v>31698</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="2">
+        <v>65240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="2">
+        <v>63717</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2">
+        <v>81701</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>51832</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2">
+        <v>26911</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>27925</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="2">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="2">
+        <v>42528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="2">
+        <v>10396</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="2">
+        <v>17023</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="2">
+        <v>35304</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B154" s="3">
-        <v>62933</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B155" s="3">
-        <v>58923</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="3">
-        <v>20707</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B157" s="3">
-        <v>97010</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B158" s="3">
-        <v>9545</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B159" s="3">
-        <v>7335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B160" s="3">
-        <v>81468</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B161" s="3">
-        <v>56173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B162" s="3">
-        <v>31698</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" s="3">
-        <v>65240</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B164" s="3">
-        <v>63717</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="3">
-        <v>81701</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="3">
-        <v>51832</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="3">
-        <v>26911</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="3">
-        <v>27925</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="3">
-        <v>3958</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B170" s="3">
-        <v>42528</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="3">
-        <v>10396</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B172" s="3">
-        <v>17023</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173" s="3">
-        <v>35304</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B174" s="3">
+      <c r="B182" s="2">
         <v>40542</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B175" s="3">
+    <row r="183" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" s="2">
         <v>937</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B176" s="3">
+    <row r="184" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184" s="2">
         <v>32296</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B177" s="3">
+    <row r="185" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B185" s="2">
         <v>68419</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="4" t="s">
+    <row r="186" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B186" s="2">
         <v>52604</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="4" t="s">
+    <row r="187" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B187" s="2">
         <v>55037</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="4" t="s">
+    <row r="188" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B188" s="2">
         <v>94522</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
+    <row r="189" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B189" s="2">
         <v>20797</v>
       </c>
     </row>
